--- a/data/pca/factorExposure/factorExposure_2019-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.118934843629763</v>
+        <v>0.0787834257031686</v>
       </c>
       <c r="C2">
-        <v>0.01785713646120806</v>
+        <v>0.01033069372163811</v>
       </c>
       <c r="D2">
-        <v>0.01844580720821973</v>
+        <v>-0.03243936840398957</v>
       </c>
       <c r="E2">
-        <v>0.1118358506311789</v>
+        <v>0.1404186820244929</v>
       </c>
       <c r="F2">
-        <v>0.09342772116234595</v>
+        <v>0.0355134853532162</v>
       </c>
       <c r="G2">
-        <v>-0.1282432098428084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08642287196943224</v>
+      </c>
+      <c r="H2">
+        <v>0.07806511009885982</v>
+      </c>
+      <c r="I2">
+        <v>0.05477451513963447</v>
+      </c>
+      <c r="J2">
+        <v>-0.004003699333768262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2104482362357243</v>
+        <v>0.1645038614305591</v>
       </c>
       <c r="C3">
-        <v>-0.0745895865728108</v>
+        <v>0.07875591585283616</v>
       </c>
       <c r="D3">
-        <v>-0.08144867224769686</v>
+        <v>0.05457620382937301</v>
       </c>
       <c r="E3">
-        <v>0.3319089345667545</v>
+        <v>0.3456404734637831</v>
       </c>
       <c r="F3">
-        <v>0.02482218144393854</v>
+        <v>0.1795557246883794</v>
       </c>
       <c r="G3">
-        <v>-0.3574810796864376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01970882859444564</v>
+      </c>
+      <c r="H3">
+        <v>0.2533863657905608</v>
+      </c>
+      <c r="I3">
+        <v>0.1550165761597118</v>
+      </c>
+      <c r="J3">
+        <v>0.2297544144008781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09915593879884109</v>
+        <v>0.07417693727246995</v>
       </c>
       <c r="C4">
-        <v>-0.01688049671142186</v>
+        <v>0.02916244087150932</v>
       </c>
       <c r="D4">
-        <v>-0.001027958262289615</v>
+        <v>-0.02060237475204351</v>
       </c>
       <c r="E4">
-        <v>0.08910523891199879</v>
+        <v>0.07540134079773674</v>
       </c>
       <c r="F4">
-        <v>0.04953479833421705</v>
+        <v>0.06811347435263147</v>
       </c>
       <c r="G4">
-        <v>-0.03168966019325434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03934972023848447</v>
+      </c>
+      <c r="H4">
+        <v>0.03171230569024752</v>
+      </c>
+      <c r="I4">
+        <v>0.02459647576930829</v>
+      </c>
+      <c r="J4">
+        <v>0.04604446835983438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01070196221774885</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.004057191687795663</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0003241529956772518</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003330296808138917</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.006156394579447975</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01243755199067414</v>
+      </c>
+      <c r="H6">
+        <v>0.005320459782843582</v>
+      </c>
+      <c r="I6">
+        <v>0.00329065027441456</v>
+      </c>
+      <c r="J6">
+        <v>-0.001795953474949868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04428056181308292</v>
+        <v>0.03612876105421239</v>
       </c>
       <c r="C7">
-        <v>-0.003318172845645684</v>
+        <v>0.01585242150615583</v>
       </c>
       <c r="D7">
-        <v>0.02495795581060738</v>
+        <v>-0.01700968625791904</v>
       </c>
       <c r="E7">
-        <v>0.07997478045329923</v>
+        <v>0.05222988067013124</v>
       </c>
       <c r="F7">
-        <v>-0.03842605930863971</v>
+        <v>0.03651297948297511</v>
       </c>
       <c r="G7">
-        <v>-0.02115144386243161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01185934116179166</v>
+      </c>
+      <c r="H7">
+        <v>0.0422933775647014</v>
+      </c>
+      <c r="I7">
+        <v>0.002632992147330625</v>
+      </c>
+      <c r="J7">
+        <v>0.02041676569482783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04122824181575285</v>
+        <v>0.0323110433941203</v>
       </c>
       <c r="C8">
-        <v>-0.03250545987086694</v>
+        <v>0.0338037082756345</v>
       </c>
       <c r="D8">
-        <v>-0.007396512451427183</v>
+        <v>-0.005633966536701433</v>
       </c>
       <c r="E8">
-        <v>0.07230414651896558</v>
+        <v>0.06771680569349264</v>
       </c>
       <c r="F8">
-        <v>0.003101723213790102</v>
+        <v>0.05978298798883043</v>
       </c>
       <c r="G8">
-        <v>-0.05405650395866596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.004108705098796195</v>
+      </c>
+      <c r="H8">
+        <v>0.05076472885077617</v>
+      </c>
+      <c r="I8">
+        <v>0.03647353575725244</v>
+      </c>
+      <c r="J8">
+        <v>0.0312870801248649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08788653752403654</v>
+        <v>0.06465620770178315</v>
       </c>
       <c r="C9">
-        <v>-0.01770543043987447</v>
+        <v>0.02947914037969244</v>
       </c>
       <c r="D9">
-        <v>0.01397895359606497</v>
+        <v>-0.02190425358739575</v>
       </c>
       <c r="E9">
-        <v>0.07901931145456197</v>
+        <v>0.06822815401937946</v>
       </c>
       <c r="F9">
-        <v>0.03105459387760872</v>
+        <v>0.07421586124465027</v>
       </c>
       <c r="G9">
-        <v>-0.02965602797818065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.03071628530110179</v>
+      </c>
+      <c r="H9">
+        <v>0.02896268309266328</v>
+      </c>
+      <c r="I9">
+        <v>0.01108113463214755</v>
+      </c>
+      <c r="J9">
+        <v>0.009811285301822457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02004586254181484</v>
+        <v>0.005238242215085029</v>
       </c>
       <c r="C10">
-        <v>0.1590694758140196</v>
+        <v>-0.1595603682637511</v>
       </c>
       <c r="D10">
-        <v>-0.007420889291885118</v>
+        <v>0.01046817300542869</v>
       </c>
       <c r="E10">
-        <v>0.03984400431227974</v>
+        <v>0.04924149773178798</v>
       </c>
       <c r="F10">
-        <v>0.002682194365875077</v>
+        <v>0.009894687047166969</v>
       </c>
       <c r="G10">
-        <v>0.007128852686332661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01422351042886379</v>
+      </c>
+      <c r="H10">
+        <v>-0.02235027945395891</v>
+      </c>
+      <c r="I10">
+        <v>0.1201023451623693</v>
+      </c>
+      <c r="J10">
+        <v>0.028460004291872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05968372267492666</v>
+        <v>0.05109581840579165</v>
       </c>
       <c r="C11">
-        <v>0.001548130679624569</v>
+        <v>0.01653947211071043</v>
       </c>
       <c r="D11">
-        <v>-0.01448025174431918</v>
+        <v>-0.00435686932616018</v>
       </c>
       <c r="E11">
-        <v>0.04346136318544948</v>
+        <v>0.04765702002963152</v>
       </c>
       <c r="F11">
-        <v>0.005277191121222794</v>
+        <v>0.01067728881991133</v>
       </c>
       <c r="G11">
-        <v>0.005037634583091214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.004718421982381469</v>
+      </c>
+      <c r="H11">
+        <v>0.01831604945063751</v>
+      </c>
+      <c r="I11">
+        <v>-0.01404000846647815</v>
+      </c>
+      <c r="J11">
+        <v>0.004417931509346508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.05006021048443777</v>
+        <v>0.0493785292682469</v>
       </c>
       <c r="C12">
-        <v>-0.002674842381243804</v>
+        <v>0.01687371042452986</v>
       </c>
       <c r="D12">
-        <v>-0.008244246887558078</v>
+        <v>-0.006803277454718776</v>
       </c>
       <c r="E12">
-        <v>0.02759201130488951</v>
+        <v>0.02137488654567148</v>
       </c>
       <c r="F12">
-        <v>-0.0044897404634791</v>
+        <v>0.02050830843351715</v>
       </c>
       <c r="G12">
-        <v>-0.0001306704296263282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0009561014230530533</v>
+      </c>
+      <c r="H12">
+        <v>0.007217975179837803</v>
+      </c>
+      <c r="I12">
+        <v>-0.01954729177598334</v>
+      </c>
+      <c r="J12">
+        <v>-0.0004355881663351471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05863990496208528</v>
+        <v>0.04069401788743367</v>
       </c>
       <c r="C13">
-        <v>-0.01523207424811945</v>
+        <v>0.01886903452807195</v>
       </c>
       <c r="D13">
-        <v>-0.02475722304445404</v>
+        <v>-0.002479933569132539</v>
       </c>
       <c r="E13">
-        <v>0.114580060126903</v>
+        <v>0.1034548766965887</v>
       </c>
       <c r="F13">
-        <v>0.01869430331129721</v>
+        <v>0.02803838739993538</v>
       </c>
       <c r="G13">
-        <v>-0.04740453264203909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.006759698184351246</v>
+      </c>
+      <c r="H13">
+        <v>0.05351884342583921</v>
+      </c>
+      <c r="I13">
+        <v>0.02238090059896962</v>
+      </c>
+      <c r="J13">
+        <v>-0.0001381194153189634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0375747845345482</v>
+        <v>0.02856326895051853</v>
       </c>
       <c r="C14">
-        <v>-0.004746348568732405</v>
+        <v>0.01237167828382861</v>
       </c>
       <c r="D14">
-        <v>0.01466290271202288</v>
+        <v>-0.02033638585892823</v>
       </c>
       <c r="E14">
-        <v>0.02739690556231809</v>
+        <v>0.03469943470979291</v>
       </c>
       <c r="F14">
-        <v>0.002052371731040689</v>
+        <v>0.02642174128209215</v>
       </c>
       <c r="G14">
-        <v>-0.04681438294144201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01584357375471191</v>
+      </c>
+      <c r="H14">
+        <v>0.05757885471580469</v>
+      </c>
+      <c r="I14">
+        <v>0.02327994242772762</v>
+      </c>
+      <c r="J14">
+        <v>0.004697125369288671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05239133785341336</v>
+        <v>0.04386709986302053</v>
       </c>
       <c r="C16">
-        <v>-0.01660791370600733</v>
+        <v>0.02557768613439364</v>
       </c>
       <c r="D16">
-        <v>-0.02467502789092098</v>
+        <v>0.002185412792576125</v>
       </c>
       <c r="E16">
-        <v>0.03970828559811451</v>
+        <v>0.04303993157354329</v>
       </c>
       <c r="F16">
-        <v>-0.001208916969192966</v>
+        <v>0.0141100489932778</v>
       </c>
       <c r="G16">
-        <v>0.006561135183916712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.002230299030816809</v>
+      </c>
+      <c r="H16">
+        <v>0.0182448039194135</v>
+      </c>
+      <c r="I16">
+        <v>-0.01380351706090753</v>
+      </c>
+      <c r="J16">
+        <v>0.006684479280921317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04882869996849811</v>
+        <v>0.04860752654835785</v>
       </c>
       <c r="C19">
-        <v>-0.02698919637464891</v>
+        <v>0.03142755668097114</v>
       </c>
       <c r="D19">
-        <v>-0.01121152831052509</v>
+        <v>-0.002457916794243821</v>
       </c>
       <c r="E19">
-        <v>0.08227424220338141</v>
+        <v>0.08613555775927219</v>
       </c>
       <c r="F19">
-        <v>0.00367044922917521</v>
+        <v>0.0501667431732205</v>
       </c>
       <c r="G19">
-        <v>-0.0728877843578879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0007414770927052518</v>
+      </c>
+      <c r="H19">
+        <v>0.07391145646661573</v>
+      </c>
+      <c r="I19">
+        <v>0.06001374933394454</v>
+      </c>
+      <c r="J19">
+        <v>-0.001859866712839613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03596369291920818</v>
+        <v>0.01991729590883704</v>
       </c>
       <c r="C20">
-        <v>-0.02956042492794276</v>
+        <v>0.03050639935460635</v>
       </c>
       <c r="D20">
-        <v>-0.003439194783460358</v>
+        <v>-0.01049500491762297</v>
       </c>
       <c r="E20">
-        <v>0.07669231421821784</v>
+        <v>0.06757480321520536</v>
       </c>
       <c r="F20">
-        <v>-0.004594929499495675</v>
+        <v>0.04537701489970532</v>
       </c>
       <c r="G20">
-        <v>-0.05759435947995614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.001728738414919379</v>
+      </c>
+      <c r="H20">
+        <v>0.07354491013057714</v>
+      </c>
+      <c r="I20">
+        <v>0.02011885108610941</v>
+      </c>
+      <c r="J20">
+        <v>0.03891824034233811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03770382194314086</v>
+        <v>0.01683926198601699</v>
       </c>
       <c r="C21">
-        <v>-0.01044321447591504</v>
+        <v>0.02199419346034917</v>
       </c>
       <c r="D21">
-        <v>-0.01973444494104961</v>
+        <v>0.01019653091068808</v>
       </c>
       <c r="E21">
-        <v>0.09207617318070031</v>
+        <v>0.07492467160393193</v>
       </c>
       <c r="F21">
-        <v>0.03997500526145635</v>
+        <v>0.04415896426514154</v>
       </c>
       <c r="G21">
-        <v>-0.0498544966709188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0199614757545704</v>
+      </c>
+      <c r="H21">
+        <v>0.04302777944128604</v>
+      </c>
+      <c r="I21">
+        <v>-0.004289105347041133</v>
+      </c>
+      <c r="J21">
+        <v>-0.01198206600957201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04744457273367259</v>
+        <v>0.04141896229168617</v>
       </c>
       <c r="C24">
-        <v>-0.009221036132897202</v>
+        <v>0.01535409059203748</v>
       </c>
       <c r="D24">
-        <v>-0.01233150145208177</v>
+        <v>-0.003900510256374794</v>
       </c>
       <c r="E24">
-        <v>0.05426735572304145</v>
+        <v>0.04688519123413849</v>
       </c>
       <c r="F24">
-        <v>0.002159150406214932</v>
+        <v>0.01619051107709623</v>
       </c>
       <c r="G24">
-        <v>0.008640353695336901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008001831772330112</v>
+      </c>
+      <c r="H24">
+        <v>0.01512825984581283</v>
+      </c>
+      <c r="I24">
+        <v>-0.01024815797365545</v>
+      </c>
+      <c r="J24">
+        <v>0.01071241437077339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05070802774455488</v>
+        <v>0.044456883245325</v>
       </c>
       <c r="C25">
-        <v>0.00143118740432512</v>
+        <v>0.01511819141305745</v>
       </c>
       <c r="D25">
-        <v>-0.01280763236606931</v>
+        <v>-0.001974069561958347</v>
       </c>
       <c r="E25">
-        <v>0.04237371143026521</v>
+        <v>0.04627415367777057</v>
       </c>
       <c r="F25">
-        <v>0.002750726320872734</v>
+        <v>0.01938627027356391</v>
       </c>
       <c r="G25">
-        <v>0.008395019055699461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002403818416393099</v>
+      </c>
+      <c r="H25">
+        <v>0.009656759676678174</v>
+      </c>
+      <c r="I25">
+        <v>-0.01449334261307732</v>
+      </c>
+      <c r="J25">
+        <v>0.001041766077309745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002298418682791706</v>
+        <v>0.01010119468000112</v>
       </c>
       <c r="C26">
-        <v>-0.01512417180232254</v>
+        <v>0.01549980939662876</v>
       </c>
       <c r="D26">
-        <v>0.001803875881247985</v>
+        <v>0.004665462725389556</v>
       </c>
       <c r="E26">
-        <v>0.0570474392840651</v>
+        <v>0.05968379330255867</v>
       </c>
       <c r="F26">
-        <v>0.02159928317939353</v>
+        <v>0.0106746738388235</v>
       </c>
       <c r="G26">
-        <v>-0.01834244949840156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01039653282676577</v>
+      </c>
+      <c r="H26">
+        <v>0.03393723863867542</v>
+      </c>
+      <c r="I26">
+        <v>-0.0003904596141400022</v>
+      </c>
+      <c r="J26">
+        <v>0.01919905490825012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1096222097235315</v>
+        <v>0.08972732369560431</v>
       </c>
       <c r="C27">
-        <v>-0.003511426850439456</v>
+        <v>0.0179836151438431</v>
       </c>
       <c r="D27">
-        <v>0.007603150504087807</v>
+        <v>-0.02825810139122644</v>
       </c>
       <c r="E27">
-        <v>0.1099768575631729</v>
+        <v>0.07329402868073361</v>
       </c>
       <c r="F27">
-        <v>0.002419142932051542</v>
+        <v>0.05716185783420564</v>
       </c>
       <c r="G27">
-        <v>0.01729287395235626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0002575954127370283</v>
+      </c>
+      <c r="H27">
+        <v>0.006310186230725657</v>
+      </c>
+      <c r="I27">
+        <v>0.001326217714585616</v>
+      </c>
+      <c r="J27">
+        <v>0.02205588708618886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02457506712004261</v>
+        <v>0.01198710305418848</v>
       </c>
       <c r="C28">
-        <v>0.2365766182073821</v>
+        <v>-0.2302757321916574</v>
       </c>
       <c r="D28">
-        <v>-0.01865028063278458</v>
+        <v>0.01591848486254633</v>
       </c>
       <c r="E28">
-        <v>0.02345583967006822</v>
+        <v>0.03651114818164414</v>
       </c>
       <c r="F28">
-        <v>0.006254641581055401</v>
+        <v>0.007400109602288496</v>
       </c>
       <c r="G28">
-        <v>0.04185079423939195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01810485480847241</v>
+      </c>
+      <c r="H28">
+        <v>-0.04628908703966199</v>
+      </c>
+      <c r="I28">
+        <v>0.1625627458896459</v>
+      </c>
+      <c r="J28">
+        <v>0.05413763401400835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02135014994274064</v>
+        <v>0.01952118746620501</v>
       </c>
       <c r="C29">
-        <v>-0.01530161439497046</v>
+        <v>0.01720127092535996</v>
       </c>
       <c r="D29">
-        <v>0.01493025064681584</v>
+        <v>-0.01765480689406783</v>
       </c>
       <c r="E29">
-        <v>0.04158707999173301</v>
+        <v>0.03442210599922108</v>
       </c>
       <c r="F29">
-        <v>0.0163159501080186</v>
+        <v>0.03398225875006802</v>
       </c>
       <c r="G29">
-        <v>-0.04719906159904038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01960925061837412</v>
+      </c>
+      <c r="H29">
+        <v>0.05604252523070577</v>
+      </c>
+      <c r="I29">
+        <v>0.0120053282790601</v>
+      </c>
+      <c r="J29">
+        <v>0.003644726696427143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.10474811543724</v>
+        <v>0.1025445252102112</v>
       </c>
       <c r="C30">
-        <v>0.0008829442809795833</v>
+        <v>0.0263135590562527</v>
       </c>
       <c r="D30">
-        <v>-0.0009901628443065625</v>
+        <v>-0.02793700610841225</v>
       </c>
       <c r="E30">
-        <v>0.1355803890059819</v>
+        <v>0.1157792771201886</v>
       </c>
       <c r="F30">
-        <v>0.0101365530901961</v>
+        <v>0.03306718515514145</v>
       </c>
       <c r="G30">
-        <v>0.06966630938056036</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02351127588348447</v>
+      </c>
+      <c r="H30">
+        <v>0.0110056508574254</v>
+      </c>
+      <c r="I30">
+        <v>-0.03507443850173252</v>
+      </c>
+      <c r="J30">
+        <v>-0.01061321067974019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05626059516374285</v>
+        <v>0.05717319888778014</v>
       </c>
       <c r="C31">
-        <v>-0.009253187568886564</v>
+        <v>0.01642606245771999</v>
       </c>
       <c r="D31">
-        <v>0.014050122432906</v>
+        <v>-0.01455384695444998</v>
       </c>
       <c r="E31">
-        <v>-0.005301194294570315</v>
+        <v>0.01850797157102612</v>
       </c>
       <c r="F31">
-        <v>0.02115535742768484</v>
+        <v>-0.01127678078545915</v>
       </c>
       <c r="G31">
-        <v>-0.02242737549142444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03864563042264264</v>
+      </c>
+      <c r="H31">
+        <v>0.04581475124210736</v>
+      </c>
+      <c r="I31">
+        <v>0.0203071608777129</v>
+      </c>
+      <c r="J31">
+        <v>0.003495274651662562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06742511696614049</v>
+        <v>0.04723170018967585</v>
       </c>
       <c r="C32">
-        <v>-0.01710414829919997</v>
+        <v>0.03953914734057808</v>
       </c>
       <c r="D32">
-        <v>-0.003150742635137492</v>
+        <v>-0.01548422383814043</v>
       </c>
       <c r="E32">
-        <v>0.1253721632760521</v>
+        <v>0.09414617952834835</v>
       </c>
       <c r="F32">
-        <v>-0.01648357506795851</v>
+        <v>0.05888276846014261</v>
       </c>
       <c r="G32">
-        <v>-0.03837225645681967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01387043006732059</v>
+      </c>
+      <c r="H32">
+        <v>0.05204484802972596</v>
+      </c>
+      <c r="I32">
+        <v>0.02346856863998351</v>
+      </c>
+      <c r="J32">
+        <v>-0.01272865418148576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06953550906761563</v>
+        <v>0.05996972192413087</v>
       </c>
       <c r="C33">
-        <v>-0.02221078953051859</v>
+        <v>0.03910406339563918</v>
       </c>
       <c r="D33">
-        <v>-0.001018939605161308</v>
+        <v>-0.001825811820591736</v>
       </c>
       <c r="E33">
-        <v>0.07819969325340172</v>
+        <v>0.08531921094357049</v>
       </c>
       <c r="F33">
-        <v>0.03633821782458607</v>
+        <v>0.02866507228231461</v>
       </c>
       <c r="G33">
-        <v>-0.02527395878783556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01906035131886651</v>
+      </c>
+      <c r="H33">
+        <v>0.04868473002453141</v>
+      </c>
+      <c r="I33">
+        <v>-0.01015925922818978</v>
+      </c>
+      <c r="J33">
+        <v>0.006496725422317858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04783540076673681</v>
+        <v>0.04292919431494973</v>
       </c>
       <c r="C34">
-        <v>-0.009213938201389047</v>
+        <v>0.02130562387537168</v>
       </c>
       <c r="D34">
-        <v>-0.01139882855381847</v>
+        <v>-0.007719356951410316</v>
       </c>
       <c r="E34">
-        <v>0.02737863260270154</v>
+        <v>0.03757426423711384</v>
       </c>
       <c r="F34">
-        <v>-0.002961314935675521</v>
+        <v>0.01390240012181924</v>
       </c>
       <c r="G34">
-        <v>-0.01183788051963103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001193528808119027</v>
+      </c>
+      <c r="H34">
+        <v>0.02241310473775932</v>
+      </c>
+      <c r="I34">
+        <v>-0.01230649684561083</v>
+      </c>
+      <c r="J34">
+        <v>-0.004823294985141524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01182899314704268</v>
+        <v>0.01358515748252563</v>
       </c>
       <c r="C36">
-        <v>0.0102132222168034</v>
+        <v>-0.0006054883011560051</v>
       </c>
       <c r="D36">
-        <v>0.00280054514008658</v>
+        <v>-0.006159390419299176</v>
       </c>
       <c r="E36">
-        <v>0.02754242459193775</v>
+        <v>0.02768581319655864</v>
       </c>
       <c r="F36">
-        <v>0.01382257203036966</v>
+        <v>0.01751480111355435</v>
       </c>
       <c r="G36">
-        <v>-0.0158054209949789</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01934042263053861</v>
+      </c>
+      <c r="H36">
+        <v>0.03313217644616534</v>
+      </c>
+      <c r="I36">
+        <v>0.009219912673078392</v>
+      </c>
+      <c r="J36">
+        <v>-0.005609873436096193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0543601510419955</v>
+        <v>0.03083898911788176</v>
       </c>
       <c r="C38">
-        <v>-0.0009719084013643078</v>
+        <v>0.006997190061510308</v>
       </c>
       <c r="D38">
-        <v>0.01745489256355579</v>
+        <v>-0.005974108375371598</v>
       </c>
       <c r="E38">
-        <v>0.04012008579410974</v>
+        <v>0.04580631129232718</v>
       </c>
       <c r="F38">
-        <v>0.01087495412509792</v>
+        <v>0.02711361655803707</v>
       </c>
       <c r="G38">
-        <v>-0.03343172176679134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02118315947630155</v>
+      </c>
+      <c r="H38">
+        <v>0.01394261250329251</v>
+      </c>
+      <c r="I38">
+        <v>0.003358705344260692</v>
+      </c>
+      <c r="J38">
+        <v>-0.02577014951110815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07657739147017255</v>
+        <v>0.06306755580769906</v>
       </c>
       <c r="C39">
-        <v>-0.006961229848405688</v>
+        <v>0.02938039001857512</v>
       </c>
       <c r="D39">
-        <v>-0.007315380817932139</v>
+        <v>-0.01812862754615914</v>
       </c>
       <c r="E39">
-        <v>0.04958566366914665</v>
+        <v>0.06201073820678179</v>
       </c>
       <c r="F39">
-        <v>0.01842186706359603</v>
+        <v>0.01275615973347439</v>
       </c>
       <c r="G39">
-        <v>0.007321252585582766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01002974473452709</v>
+      </c>
+      <c r="H39">
+        <v>0.01791034309205065</v>
+      </c>
+      <c r="I39">
+        <v>-0.02705356219559473</v>
+      </c>
+      <c r="J39">
+        <v>-0.006515933828550514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07279892193280373</v>
+        <v>0.05692629622465636</v>
       </c>
       <c r="C40">
-        <v>-0.02651411207426779</v>
+        <v>0.03220303585997164</v>
       </c>
       <c r="D40">
-        <v>-0.01498832388361274</v>
+        <v>-0.0183345385648867</v>
       </c>
       <c r="E40">
-        <v>0.1177389887662333</v>
+        <v>0.1135864876097531</v>
       </c>
       <c r="F40">
-        <v>0.03037578098290596</v>
+        <v>0.02134961915012941</v>
       </c>
       <c r="G40">
-        <v>-0.08765167402140325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.00364478544833867</v>
+      </c>
+      <c r="H40">
+        <v>0.08082635934097612</v>
+      </c>
+      <c r="I40">
+        <v>0.01924416847555447</v>
+      </c>
+      <c r="J40">
+        <v>0.02054537148322352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003669080420984735</v>
+        <v>0.0009627143803253137</v>
       </c>
       <c r="C41">
-        <v>-0.009305440423778734</v>
+        <v>0.009363970279921408</v>
       </c>
       <c r="D41">
-        <v>0.01156717652445601</v>
+        <v>-0.003054220495929299</v>
       </c>
       <c r="E41">
-        <v>0.01837463768526705</v>
+        <v>0.01681144164351516</v>
       </c>
       <c r="F41">
-        <v>0.02752273883713934</v>
+        <v>0.01196158402983763</v>
       </c>
       <c r="G41">
-        <v>-0.03113769358250592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03055599537014154</v>
+      </c>
+      <c r="H41">
+        <v>0.03629585497543469</v>
+      </c>
+      <c r="I41">
+        <v>0.0267184657856056</v>
+      </c>
+      <c r="J41">
+        <v>0.01373014767079936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1457827266746011</v>
+        <v>0.2483458070491484</v>
       </c>
       <c r="C42">
-        <v>-0.1708929188467336</v>
+        <v>0.1123613470061291</v>
       </c>
       <c r="D42">
-        <v>-0.9221159013141127</v>
+        <v>0.9110742312797283</v>
       </c>
       <c r="E42">
-        <v>-0.1350307383689057</v>
+        <v>-0.08949475120478005</v>
       </c>
       <c r="F42">
-        <v>-0.03087575259286867</v>
+        <v>-0.2335868954764536</v>
       </c>
       <c r="G42">
-        <v>0.1589855373305974</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.01123792453569968</v>
+      </c>
+      <c r="H42">
+        <v>-0.01989807271755724</v>
+      </c>
+      <c r="I42">
+        <v>0.04492664853552975</v>
+      </c>
+      <c r="J42">
+        <v>0.01874128332349953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008332069650321574</v>
+        <v>0.002904729250188692</v>
       </c>
       <c r="C43">
-        <v>-0.01153148100178561</v>
+        <v>0.01198209728357501</v>
       </c>
       <c r="D43">
-        <v>0.01255303729810051</v>
+        <v>-0.003257869116668956</v>
       </c>
       <c r="E43">
-        <v>0.03815984784184855</v>
+        <v>0.02903549544485046</v>
       </c>
       <c r="F43">
-        <v>0.0001799296361477292</v>
+        <v>0.01499225670736297</v>
       </c>
       <c r="G43">
-        <v>-0.02527564437345723</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009318761065099978</v>
+      </c>
+      <c r="H43">
+        <v>0.03487049086434843</v>
+      </c>
+      <c r="I43">
+        <v>0.01596487714597793</v>
+      </c>
+      <c r="J43">
+        <v>0.01185485221399652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04499754118567417</v>
+        <v>0.02986830336800431</v>
       </c>
       <c r="C44">
-        <v>-0.03163648401738232</v>
+        <v>0.02967908459769792</v>
       </c>
       <c r="D44">
-        <v>-0.008364026725971837</v>
+        <v>0.003994886380230794</v>
       </c>
       <c r="E44">
-        <v>0.1188674697885789</v>
+        <v>0.1150912745504939</v>
       </c>
       <c r="F44">
-        <v>0.05913506467609195</v>
+        <v>0.0557864778486631</v>
       </c>
       <c r="G44">
-        <v>-0.1273776311118619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03247645559723266</v>
+      </c>
+      <c r="H44">
+        <v>0.1111333125683126</v>
+      </c>
+      <c r="I44">
+        <v>0.03844951982028435</v>
+      </c>
+      <c r="J44">
+        <v>0.006027365578105846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02231766708983388</v>
+        <v>0.02130179476317766</v>
       </c>
       <c r="C46">
-        <v>-0.01152721601386241</v>
+        <v>0.02320604648617182</v>
       </c>
       <c r="D46">
-        <v>0.02037296420985289</v>
+        <v>-0.0160428821263496</v>
       </c>
       <c r="E46">
-        <v>0.02792696057594997</v>
+        <v>0.04715094826369763</v>
       </c>
       <c r="F46">
-        <v>0.02966524830806536</v>
+        <v>0.01943664513212136</v>
       </c>
       <c r="G46">
-        <v>-0.04578777077521676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01883728751781148</v>
+      </c>
+      <c r="H46">
+        <v>0.0593837531201496</v>
+      </c>
+      <c r="I46">
+        <v>0.01622459052837383</v>
+      </c>
+      <c r="J46">
+        <v>0.02178465963172957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.07995313730921833</v>
+        <v>0.08863633168244167</v>
       </c>
       <c r="C47">
-        <v>-0.00187382247421759</v>
+        <v>0.01324347476424251</v>
       </c>
       <c r="D47">
-        <v>0.01670556901133443</v>
+        <v>-0.02180528351894066</v>
       </c>
       <c r="E47">
-        <v>-0.007600455853338342</v>
+        <v>0.002785823083759424</v>
       </c>
       <c r="F47">
-        <v>0.01319142001161374</v>
+        <v>-0.001207738751650883</v>
       </c>
       <c r="G47">
-        <v>-0.04891273550827616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03619781125349333</v>
+      </c>
+      <c r="H47">
+        <v>0.06507799530325947</v>
+      </c>
+      <c r="I47">
+        <v>0.0276121733378616</v>
+      </c>
+      <c r="J47">
+        <v>0.01536258647274627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01437015053438372</v>
+        <v>0.01463272844778589</v>
       </c>
       <c r="C48">
-        <v>-0.01318201918511219</v>
+        <v>0.01747332469574508</v>
       </c>
       <c r="D48">
-        <v>0.01038587145359554</v>
+        <v>-0.004734378934638068</v>
       </c>
       <c r="E48">
-        <v>0.03887444939341947</v>
+        <v>0.03632635469667924</v>
       </c>
       <c r="F48">
-        <v>0.01801686269233881</v>
+        <v>0.0215763153381448</v>
       </c>
       <c r="G48">
-        <v>-0.01167356282693326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01072461042983518</v>
+      </c>
+      <c r="H48">
+        <v>0.02174233978618753</v>
+      </c>
+      <c r="I48">
+        <v>0.01385323035527681</v>
+      </c>
+      <c r="J48">
+        <v>0.0102832602339219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07947350263060081</v>
+        <v>0.08182355838823227</v>
       </c>
       <c r="C50">
-        <v>-0.02492769565738538</v>
+        <v>0.03412392269860604</v>
       </c>
       <c r="D50">
-        <v>0.01809176024674162</v>
+        <v>-0.01507385310327349</v>
       </c>
       <c r="E50">
-        <v>-0.01518148502407301</v>
+        <v>0.007285980377862459</v>
       </c>
       <c r="F50">
-        <v>0.01700597019430969</v>
+        <v>0.00526693111040841</v>
       </c>
       <c r="G50">
-        <v>-0.02555190331801088</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008723182452521587</v>
+      </c>
+      <c r="H50">
+        <v>0.04774907806236908</v>
+      </c>
+      <c r="I50">
+        <v>0.01926715973746404</v>
+      </c>
+      <c r="J50">
+        <v>-0.03067753983061761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06789235422684066</v>
+        <v>0.04801368021272844</v>
       </c>
       <c r="C51">
-        <v>0.02635161240651796</v>
+        <v>-0.008484442516816713</v>
       </c>
       <c r="D51">
-        <v>-0.00148952704405705</v>
+        <v>-0.006555142191559182</v>
       </c>
       <c r="E51">
-        <v>0.06664813414484663</v>
+        <v>0.09899961969524038</v>
       </c>
       <c r="F51">
-        <v>0.05500060325376316</v>
+        <v>0.01874750873981956</v>
       </c>
       <c r="G51">
-        <v>-0.01734216464470999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04419254640206027</v>
+      </c>
+      <c r="H51">
+        <v>0.05171805420535972</v>
+      </c>
+      <c r="I51">
+        <v>0.04173784032544156</v>
+      </c>
+      <c r="J51">
+        <v>0.01348692025519045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1467411652551159</v>
+        <v>0.129442598936325</v>
       </c>
       <c r="C53">
-        <v>-0.004734827255590076</v>
+        <v>0.03514289991948177</v>
       </c>
       <c r="D53">
-        <v>0.04303495611609084</v>
+        <v>-0.04818108114987626</v>
       </c>
       <c r="E53">
-        <v>-0.02126031535545546</v>
+        <v>-0.02336140186887909</v>
       </c>
       <c r="F53">
-        <v>0.006867413155799904</v>
+        <v>-0.01288386305366828</v>
       </c>
       <c r="G53">
-        <v>-0.01937774948394794</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02828958285902079</v>
+      </c>
+      <c r="H53">
+        <v>0.009411883317099256</v>
+      </c>
+      <c r="I53">
+        <v>0.02225816323968098</v>
+      </c>
+      <c r="J53">
+        <v>0.06841887608209715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02493785451195419</v>
+        <v>0.02306995960736096</v>
       </c>
       <c r="C54">
-        <v>0.007628775612367272</v>
+        <v>0.003498958778095885</v>
       </c>
       <c r="D54">
-        <v>0.01995139157658067</v>
+        <v>-0.02387421397761759</v>
       </c>
       <c r="E54">
-        <v>0.0382811822207844</v>
+        <v>0.035221076221308</v>
       </c>
       <c r="F54">
-        <v>0.03874324355466421</v>
+        <v>0.0298925187073372</v>
       </c>
       <c r="G54">
-        <v>-0.05601371871409778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03349231902324694</v>
+      </c>
+      <c r="H54">
+        <v>0.06392325077809345</v>
+      </c>
+      <c r="I54">
+        <v>0.04180723380379391</v>
+      </c>
+      <c r="J54">
+        <v>-0.001305936971060935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09754338433387737</v>
+        <v>0.1030195735855674</v>
       </c>
       <c r="C55">
-        <v>0.004789827413272062</v>
+        <v>0.01650850290600819</v>
       </c>
       <c r="D55">
-        <v>0.03396580736849109</v>
+        <v>-0.03059245204550659</v>
       </c>
       <c r="E55">
-        <v>0.01492195897128067</v>
+        <v>-0.02780833198987531</v>
       </c>
       <c r="F55">
-        <v>-0.01506619245429413</v>
+        <v>0.02793831880964813</v>
       </c>
       <c r="G55">
-        <v>-0.009529432164834255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0002112668455961969</v>
+      </c>
+      <c r="H55">
+        <v>0.02830972369635291</v>
+      </c>
+      <c r="I55">
+        <v>0.003400130524556699</v>
+      </c>
+      <c r="J55">
+        <v>0.06233501833138583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1803035299864395</v>
+        <v>0.1683931816490922</v>
       </c>
       <c r="C56">
-        <v>0.02510128867826912</v>
+        <v>0.01583003256304218</v>
       </c>
       <c r="D56">
-        <v>0.08765149940372327</v>
+        <v>-0.08978670433410633</v>
       </c>
       <c r="E56">
-        <v>-0.06173803585880895</v>
+        <v>-0.07425181281412245</v>
       </c>
       <c r="F56">
-        <v>-0.05506943408759256</v>
+        <v>-0.01024895582746727</v>
       </c>
       <c r="G56">
-        <v>0.01192631185420377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01882037047747527</v>
+      </c>
+      <c r="H56">
+        <v>-0.03004107128013001</v>
+      </c>
+      <c r="I56">
+        <v>-0.02260583823347091</v>
+      </c>
+      <c r="J56">
+        <v>0.08671694158939997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09455507792017567</v>
+        <v>0.07365260482865571</v>
       </c>
       <c r="C57">
-        <v>-0.01759421401488928</v>
+        <v>0.0228896144105668</v>
       </c>
       <c r="D57">
-        <v>0.01497459582481126</v>
+        <v>-0.007799823477803891</v>
       </c>
       <c r="E57">
-        <v>0.07229621500120975</v>
+        <v>0.07202800546190971</v>
       </c>
       <c r="F57">
-        <v>0.001508632410938036</v>
+        <v>0.02775130503217529</v>
       </c>
       <c r="G57">
-        <v>-0.04092925277420294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0004989381309563174</v>
+      </c>
+      <c r="H57">
+        <v>0.04424140245385081</v>
+      </c>
+      <c r="I57">
+        <v>-0.009399905345536055</v>
+      </c>
+      <c r="J57">
+        <v>0.02311734589596465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.162237395054104</v>
+        <v>0.2001170154765637</v>
       </c>
       <c r="C58">
-        <v>-0.0004590608048236492</v>
+        <v>0.03108645903248541</v>
       </c>
       <c r="D58">
-        <v>-0.0679874305781953</v>
+        <v>0.02116042952352127</v>
       </c>
       <c r="E58">
-        <v>0.1109292202636911</v>
+        <v>0.161647547663527</v>
       </c>
       <c r="F58">
-        <v>-0.08976135568490735</v>
+        <v>0.05774617467455073</v>
       </c>
       <c r="G58">
-        <v>-0.2641877919866583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1745533587805944</v>
+      </c>
+      <c r="H58">
+        <v>0.3282278321684176</v>
+      </c>
+      <c r="I58">
+        <v>0.1117526327091356</v>
+      </c>
+      <c r="J58">
+        <v>-0.4490318761941074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.0138578081265331</v>
+        <v>0.01784349832696427</v>
       </c>
       <c r="C59">
-        <v>0.2024909314471769</v>
+        <v>-0.1992850473682151</v>
       </c>
       <c r="D59">
-        <v>0.01742589372437775</v>
+        <v>-0.01973684317698954</v>
       </c>
       <c r="E59">
-        <v>0.04002787065212391</v>
+        <v>0.053798533405874</v>
       </c>
       <c r="F59">
-        <v>0.004501585420896761</v>
+        <v>-0.002419182695781408</v>
       </c>
       <c r="G59">
-        <v>0.0393104327263902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002034616081569354</v>
+      </c>
+      <c r="H59">
+        <v>-0.03226989995290865</v>
+      </c>
+      <c r="I59">
+        <v>0.08383172413644455</v>
+      </c>
+      <c r="J59">
+        <v>-0.000439087969154454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1758753820191367</v>
+        <v>0.1790367088774687</v>
       </c>
       <c r="C60">
-        <v>0.1276901087899522</v>
+        <v>-0.0728138690354922</v>
       </c>
       <c r="D60">
-        <v>0.015899753041088</v>
+        <v>-0.02908196779046009</v>
       </c>
       <c r="E60">
-        <v>0.1782612296516251</v>
+        <v>0.2130623369739633</v>
       </c>
       <c r="F60">
-        <v>0.03487835566435549</v>
+        <v>-0.005802128636178691</v>
       </c>
       <c r="G60">
-        <v>0.1709858665377215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0706686376384429</v>
+      </c>
+      <c r="H60">
+        <v>-0.2283146471662275</v>
+      </c>
+      <c r="I60">
+        <v>-0.1231862678730828</v>
+      </c>
+      <c r="J60">
+        <v>-0.01031858639673994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.049799964469909</v>
+        <v>0.03948829713461045</v>
       </c>
       <c r="C61">
-        <v>-0.001737945818405591</v>
+        <v>0.01582074055885784</v>
       </c>
       <c r="D61">
-        <v>-0.01301711535018949</v>
+        <v>-0.0008538595802602726</v>
       </c>
       <c r="E61">
-        <v>0.04615256006846009</v>
+        <v>0.0471456768002331</v>
       </c>
       <c r="F61">
-        <v>0.01430256524031932</v>
+        <v>0.01251962700510331</v>
       </c>
       <c r="G61">
-        <v>0.02333280729701819</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.006094503527869647</v>
+      </c>
+      <c r="H61">
+        <v>0.005072641080698518</v>
+      </c>
+      <c r="I61">
+        <v>-0.03395138123754827</v>
+      </c>
+      <c r="J61">
+        <v>-0.02261024920270458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03827047461242548</v>
+        <v>0.02989948994343603</v>
       </c>
       <c r="C63">
-        <v>0.0117254505621456</v>
+        <v>0.009365711001148599</v>
       </c>
       <c r="D63">
-        <v>0.008251201139771807</v>
+        <v>-0.008061305300183041</v>
       </c>
       <c r="E63">
-        <v>0.0453433524058123</v>
+        <v>0.03481674461049492</v>
       </c>
       <c r="F63">
-        <v>0.01261530129830535</v>
+        <v>0.01859179072195648</v>
       </c>
       <c r="G63">
-        <v>-0.02107560008806702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.009964096844764743</v>
+      </c>
+      <c r="H63">
+        <v>0.04128029956094787</v>
+      </c>
+      <c r="I63">
+        <v>0.03001054425972263</v>
+      </c>
+      <c r="J63">
+        <v>0.04291133131471066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09134493187578495</v>
+        <v>0.06709471216324055</v>
       </c>
       <c r="C64">
-        <v>-0.02002114914373093</v>
+        <v>0.03648446013160033</v>
       </c>
       <c r="D64">
-        <v>0.04611213752966496</v>
+        <v>-0.03220879278165879</v>
       </c>
       <c r="E64">
-        <v>0.07513175017293509</v>
+        <v>0.04796880338200268</v>
       </c>
       <c r="F64">
-        <v>0.08899305870152872</v>
+        <v>0.0653552726343906</v>
       </c>
       <c r="G64">
-        <v>0.04936073982678544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.0686938792599241</v>
+      </c>
+      <c r="H64">
+        <v>-0.01471449584160549</v>
+      </c>
+      <c r="I64">
+        <v>0.01413437919442268</v>
+      </c>
+      <c r="J64">
+        <v>0.05802080129970704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01154499930182835</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004457426103799894</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0003538026732164538</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00219430926649791</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.004526947966194095</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01308785528943163</v>
+      </c>
+      <c r="H65">
+        <v>0.002693994933285771</v>
+      </c>
+      <c r="I65">
+        <v>0.0007771899015936167</v>
+      </c>
+      <c r="J65">
+        <v>-0.002287109537225909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1025660042138877</v>
+        <v>0.07466088160047576</v>
       </c>
       <c r="C66">
-        <v>-0.009572361133016927</v>
+        <v>0.04047454936803477</v>
       </c>
       <c r="D66">
-        <v>0.02605018511453952</v>
+        <v>-0.04108888648346548</v>
       </c>
       <c r="E66">
-        <v>0.09161254221805586</v>
+        <v>0.08586518250520583</v>
       </c>
       <c r="F66">
-        <v>0.03419469605153408</v>
+        <v>0.01781635473482863</v>
       </c>
       <c r="G66">
-        <v>0.001169544868801591</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01234066955205501</v>
+      </c>
+      <c r="H66">
+        <v>0.01540664847180397</v>
+      </c>
+      <c r="I66">
+        <v>-0.04871648816028031</v>
+      </c>
+      <c r="J66">
+        <v>0.01523364343713881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0602618858176888</v>
+        <v>0.04059016129406258</v>
       </c>
       <c r="C67">
-        <v>0.02166020580167546</v>
+        <v>-0.009258701650330584</v>
       </c>
       <c r="D67">
-        <v>0.006781458231168067</v>
+        <v>-0.004513051932769231</v>
       </c>
       <c r="E67">
-        <v>0.03304442520661249</v>
+        <v>0.03989922104801781</v>
       </c>
       <c r="F67">
-        <v>0.01009556045484685</v>
+        <v>0.01503651078755885</v>
       </c>
       <c r="G67">
-        <v>-0.03017335074203354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02745504087168603</v>
+      </c>
+      <c r="H67">
+        <v>1.724458060909854e-05</v>
+      </c>
+      <c r="I67">
+        <v>-0.03483005893562592</v>
+      </c>
+      <c r="J67">
+        <v>-0.01370950546113638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01313991033939223</v>
+        <v>0.02658066490608474</v>
       </c>
       <c r="C68">
-        <v>0.2454885856882556</v>
+        <v>-0.2380278791927599</v>
       </c>
       <c r="D68">
-        <v>-0.003339547359466548</v>
+        <v>-0.01083572960639092</v>
       </c>
       <c r="E68">
-        <v>0.02911221537968529</v>
+        <v>0.03674822111898825</v>
       </c>
       <c r="F68">
-        <v>-0.00900374361076281</v>
+        <v>0.007865604377705006</v>
       </c>
       <c r="G68">
-        <v>0.02615272576566739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01313317966435069</v>
+      </c>
+      <c r="H68">
+        <v>-0.03783039404839166</v>
+      </c>
+      <c r="I68">
+        <v>0.1749928149148761</v>
+      </c>
+      <c r="J68">
+        <v>0.01911158042137083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06475463638666937</v>
+        <v>0.06849398326815588</v>
       </c>
       <c r="C69">
-        <v>-0.00264086738131655</v>
+        <v>0.01204590911066197</v>
       </c>
       <c r="D69">
-        <v>0.02747421989753698</v>
+        <v>-0.02926539364540514</v>
       </c>
       <c r="E69">
-        <v>0.002346124410782071</v>
+        <v>0.01289002075919026</v>
       </c>
       <c r="F69">
-        <v>0.008969890495107527</v>
+        <v>-0.005959896373356728</v>
       </c>
       <c r="G69">
-        <v>-0.01860808695857228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02809158672280599</v>
+      </c>
+      <c r="H69">
+        <v>0.045956187557244</v>
+      </c>
+      <c r="I69">
+        <v>0.0002273796837744164</v>
+      </c>
+      <c r="J69">
+        <v>0.01194006773542577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.004910369473348929</v>
+        <v>0.03266020383417803</v>
       </c>
       <c r="C71">
-        <v>0.2392634937574358</v>
+        <v>-0.2411064520849572</v>
       </c>
       <c r="D71">
-        <v>-0.007508636769900178</v>
+        <v>0.01008691232063932</v>
       </c>
       <c r="E71">
-        <v>0.05548660068622987</v>
+        <v>0.06295103496940342</v>
       </c>
       <c r="F71">
-        <v>-0.0006832627496428859</v>
+        <v>-0.01425284609748691</v>
       </c>
       <c r="G71">
-        <v>0.1129679337551268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.004115370298638538</v>
+      </c>
+      <c r="H71">
+        <v>-0.05461469998996857</v>
+      </c>
+      <c r="I71">
+        <v>0.1554217922792991</v>
+      </c>
+      <c r="J71">
+        <v>-0.01483476131890803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1053755978388777</v>
+        <v>0.113524135923969</v>
       </c>
       <c r="C72">
-        <v>0.02785958971069208</v>
+        <v>-0.009388092933727049</v>
       </c>
       <c r="D72">
-        <v>0.04237033538868318</v>
+        <v>-0.06038026113505084</v>
       </c>
       <c r="E72">
-        <v>0.06891255126162958</v>
+        <v>0.07786710758051302</v>
       </c>
       <c r="F72">
-        <v>0.005793394732012188</v>
+        <v>0.03606361437697295</v>
       </c>
       <c r="G72">
-        <v>-0.03168844537415055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0283106478465976</v>
+      </c>
+      <c r="H72">
+        <v>0.00277666891215501</v>
+      </c>
+      <c r="I72">
+        <v>0.001714679036378255</v>
+      </c>
+      <c r="J72">
+        <v>-0.07514020486255442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2688888777428394</v>
+        <v>0.2724744152707672</v>
       </c>
       <c r="C73">
-        <v>0.2262800373781474</v>
+        <v>-0.1475133149827786</v>
       </c>
       <c r="D73">
-        <v>-0.02700325083512404</v>
+        <v>-0.006121218404213702</v>
       </c>
       <c r="E73">
-        <v>0.2820801986909642</v>
+        <v>0.3187282546651274</v>
       </c>
       <c r="F73">
-        <v>0.003427634044122564</v>
+        <v>-0.01189883167189645</v>
       </c>
       <c r="G73">
-        <v>0.4057553517996099</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1506719249405604</v>
+      </c>
+      <c r="H73">
+        <v>-0.4130603069753377</v>
+      </c>
+      <c r="I73">
+        <v>-0.3508677860995775</v>
+      </c>
+      <c r="J73">
+        <v>-0.1862733053662275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1558531776524411</v>
+        <v>0.1527097321789237</v>
       </c>
       <c r="C74">
-        <v>0.01350741325473391</v>
+        <v>0.01055985962444143</v>
       </c>
       <c r="D74">
-        <v>0.0511771542971572</v>
+        <v>-0.04818764489788032</v>
       </c>
       <c r="E74">
-        <v>0.006195330404573103</v>
+        <v>-0.0320589947443717</v>
       </c>
       <c r="F74">
-        <v>-0.04308740296293769</v>
+        <v>-0.005382655525353606</v>
       </c>
       <c r="G74">
-        <v>0.01633778963588765</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01485671134690055</v>
+      </c>
+      <c r="H74">
+        <v>-0.02235398434346574</v>
+      </c>
+      <c r="I74">
+        <v>-0.02462021008095671</v>
+      </c>
+      <c r="J74">
+        <v>0.09411406321478198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2376092139638576</v>
+        <v>0.2435147007054169</v>
       </c>
       <c r="C75">
-        <v>0.01927209051994657</v>
+        <v>0.0225085160484283</v>
       </c>
       <c r="D75">
-        <v>0.06760338036213652</v>
+        <v>-0.1017103668988389</v>
       </c>
       <c r="E75">
-        <v>-0.1124074480405694</v>
+        <v>-0.1204997611411918</v>
       </c>
       <c r="F75">
-        <v>-0.04316244144670522</v>
+        <v>-0.04126461072902426</v>
       </c>
       <c r="G75">
-        <v>0.005980802389051174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01235751160728387</v>
+      </c>
+      <c r="H75">
+        <v>-0.01712491404597416</v>
+      </c>
+      <c r="I75">
+        <v>0.01795653796098717</v>
+      </c>
+      <c r="J75">
+        <v>0.1577538265831987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2393364463587182</v>
+        <v>0.259819544267417</v>
       </c>
       <c r="C76">
-        <v>0.01993328593684256</v>
+        <v>0.01240735598996728</v>
       </c>
       <c r="D76">
-        <v>0.1104843045283486</v>
+        <v>-0.1321726654652798</v>
       </c>
       <c r="E76">
-        <v>-0.09024225973819898</v>
+        <v>-0.1483212576835415</v>
       </c>
       <c r="F76">
-        <v>-0.04794836629195998</v>
+        <v>-0.02008198063224015</v>
       </c>
       <c r="G76">
-        <v>0.01862180943513742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02299190733374161</v>
+      </c>
+      <c r="H76">
+        <v>-0.01302536127791272</v>
+      </c>
+      <c r="I76">
+        <v>-0.05207893416439423</v>
+      </c>
+      <c r="J76">
+        <v>0.1797672314096088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1265547087504691</v>
+        <v>0.1319991099482769</v>
       </c>
       <c r="C77">
-        <v>-0.01080765085422583</v>
+        <v>0.04198786875992513</v>
       </c>
       <c r="D77">
-        <v>-0.07532891834190313</v>
+        <v>0.0566279000412759</v>
       </c>
       <c r="E77">
-        <v>0.1650759239035579</v>
+        <v>0.1559278333912629</v>
       </c>
       <c r="F77">
-        <v>-0.007300765804928796</v>
+        <v>0.07114811347760423</v>
       </c>
       <c r="G77">
-        <v>-0.1356778279838274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02715262866978445</v>
+      </c>
+      <c r="H77">
+        <v>0.152980729477785</v>
+      </c>
+      <c r="I77">
+        <v>0.1631660845492167</v>
+      </c>
+      <c r="J77">
+        <v>0.09185845502872421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09590900893245842</v>
+        <v>0.09124763842026544</v>
       </c>
       <c r="C78">
-        <v>-0.02463633035884426</v>
+        <v>0.04999981667642137</v>
       </c>
       <c r="D78">
-        <v>-0.02569825354327732</v>
+        <v>0.004026674919536279</v>
       </c>
       <c r="E78">
-        <v>0.07664464979201679</v>
+        <v>0.08065677745417614</v>
       </c>
       <c r="F78">
-        <v>0.006162764406287092</v>
+        <v>0.0498376354409236</v>
       </c>
       <c r="G78">
-        <v>0.02604192024577315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004854659472938317</v>
+      </c>
+      <c r="H78">
+        <v>0.009835251567312745</v>
+      </c>
+      <c r="I78">
+        <v>0.03250106139112462</v>
+      </c>
+      <c r="J78">
+        <v>0.01530842224025335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07550764352684643</v>
+        <v>0.09279146859579854</v>
       </c>
       <c r="C80">
-        <v>0.0150289402276499</v>
+        <v>-0.08625017403673918</v>
       </c>
       <c r="D80">
-        <v>-0.009858939110109245</v>
+        <v>0.1905880684093927</v>
       </c>
       <c r="E80">
-        <v>-0.01471612112700085</v>
+        <v>-0.3275572355107934</v>
       </c>
       <c r="F80">
-        <v>-0.06147003212648994</v>
+        <v>0.8879155146503138</v>
       </c>
       <c r="G80">
-        <v>-0.2497975058705349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05486664143546785</v>
+      </c>
+      <c r="H80">
+        <v>-0.1380227786130755</v>
+      </c>
+      <c r="I80">
+        <v>-0.05690958938445531</v>
+      </c>
+      <c r="J80">
+        <v>-0.1014869902601398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1648674454903349</v>
+        <v>0.1734623586779767</v>
       </c>
       <c r="C81">
-        <v>0.0107622893814896</v>
+        <v>0.009508473352319002</v>
       </c>
       <c r="D81">
-        <v>0.05966362890249555</v>
+        <v>-0.08725670779539148</v>
       </c>
       <c r="E81">
-        <v>-0.1188015189347627</v>
+        <v>-0.1373195540335869</v>
       </c>
       <c r="F81">
-        <v>-0.06886792774073983</v>
+        <v>-0.04607438105501047</v>
       </c>
       <c r="G81">
-        <v>0.005090826581479626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01774178597780039</v>
+      </c>
+      <c r="H81">
+        <v>-0.008133410352221751</v>
+      </c>
+      <c r="I81">
+        <v>-0.001336699045372421</v>
+      </c>
+      <c r="J81">
+        <v>0.09459480251200959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08096683636581835</v>
+        <v>0.06533814656384504</v>
       </c>
       <c r="C83">
-        <v>-0.02408702860451548</v>
+        <v>0.03326659097467431</v>
       </c>
       <c r="D83">
-        <v>-0.09416030709173152</v>
+        <v>0.04337270185609369</v>
       </c>
       <c r="E83">
-        <v>0.03894121139351447</v>
+        <v>0.06511713944195614</v>
       </c>
       <c r="F83">
-        <v>0.06891149620301107</v>
+        <v>-0.002018531235720087</v>
       </c>
       <c r="G83">
-        <v>-0.02782046704775532</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04867098173115313</v>
+      </c>
+      <c r="H83">
+        <v>0.0350999035372664</v>
+      </c>
+      <c r="I83">
+        <v>0.01419841599357403</v>
+      </c>
+      <c r="J83">
+        <v>0.09111965837147944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2458409679388128</v>
+        <v>0.255373634678306</v>
       </c>
       <c r="C85">
-        <v>-0.04011592650624697</v>
+        <v>0.05363299245706374</v>
       </c>
       <c r="D85">
-        <v>0.05847222342408792</v>
+        <v>-0.08761823559748201</v>
       </c>
       <c r="E85">
-        <v>-0.1215963590102616</v>
+        <v>-0.145786588921419</v>
       </c>
       <c r="F85">
-        <v>-0.03745059834706001</v>
+        <v>-0.01912850601283323</v>
       </c>
       <c r="G85">
-        <v>-0.01729046267874591</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0153915874035478</v>
+      </c>
+      <c r="H85">
+        <v>0.02166829656776733</v>
+      </c>
+      <c r="I85">
+        <v>0.002226849125987342</v>
+      </c>
+      <c r="J85">
+        <v>0.1882336004727975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04707100667176298</v>
+        <v>0.03115784323774697</v>
       </c>
       <c r="C86">
-        <v>-0.02809767485400402</v>
+        <v>0.04091104665543475</v>
       </c>
       <c r="D86">
-        <v>0.002884025543439656</v>
+        <v>-0.004700774952949695</v>
       </c>
       <c r="E86">
-        <v>0.05191896031581245</v>
+        <v>0.05455797082979178</v>
       </c>
       <c r="F86">
-        <v>-0.00569655452352043</v>
+        <v>0.03961232207666779</v>
       </c>
       <c r="G86">
-        <v>-0.02854317437482676</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.004707489552540812</v>
+      </c>
+      <c r="H86">
+        <v>0.03746763166950254</v>
+      </c>
+      <c r="I86">
+        <v>0.06469850804473976</v>
+      </c>
+      <c r="J86">
+        <v>-0.02317625375152267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.0311440333708603</v>
+        <v>0.03880434031726209</v>
       </c>
       <c r="C87">
-        <v>0.05138802005161468</v>
+        <v>-0.02510822072004297</v>
       </c>
       <c r="D87">
-        <v>0.009241821631096213</v>
+        <v>-0.002440793281958536</v>
       </c>
       <c r="E87">
-        <v>0.06198668813075479</v>
+        <v>0.08689583538210473</v>
       </c>
       <c r="F87">
-        <v>0.02997995255913925</v>
+        <v>0.0305879441026281</v>
       </c>
       <c r="G87">
-        <v>0.1294729635331902</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01602012157803484</v>
+      </c>
+      <c r="H87">
+        <v>-0.01460530406047737</v>
+      </c>
+      <c r="I87">
+        <v>-0.002372612258393145</v>
+      </c>
+      <c r="J87">
+        <v>-0.09208434072373649</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03797482753169117</v>
+        <v>0.02270854335387718</v>
       </c>
       <c r="C88">
-        <v>-0.02040734381919592</v>
+        <v>0.01800573160497925</v>
       </c>
       <c r="D88">
-        <v>0.006288434922555632</v>
+        <v>-0.008716312615200384</v>
       </c>
       <c r="E88">
-        <v>0.0001221110908677961</v>
+        <v>-0.004762939197115251</v>
       </c>
       <c r="F88">
-        <v>0.0003767582562590195</v>
+        <v>0.02573972984780743</v>
       </c>
       <c r="G88">
-        <v>-0.06554311126157868</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03509542777997612</v>
+      </c>
+      <c r="H88">
+        <v>0.04537289173911419</v>
+      </c>
+      <c r="I88">
+        <v>-0.009966871124137838</v>
+      </c>
+      <c r="J88">
+        <v>-0.02584512435535861</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02896754076946489</v>
+        <v>0.03879004156211581</v>
       </c>
       <c r="C89">
-        <v>0.4307166210635279</v>
+        <v>-0.3993591462374513</v>
       </c>
       <c r="D89">
-        <v>-0.09621019113451186</v>
+        <v>0.03336708424890872</v>
       </c>
       <c r="E89">
-        <v>-0.04047016635042693</v>
+        <v>0.04275550021790173</v>
       </c>
       <c r="F89">
-        <v>0.02823756096045962</v>
+        <v>-0.04397525600735487</v>
       </c>
       <c r="G89">
-        <v>-0.0325540206820235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06698379583888721</v>
+      </c>
+      <c r="H89">
+        <v>-0.002402842456555191</v>
+      </c>
+      <c r="I89">
+        <v>0.2833742812860426</v>
+      </c>
+      <c r="J89">
+        <v>0.0763430772216888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02834478278486739</v>
+        <v>0.02277168411739321</v>
       </c>
       <c r="C90">
-        <v>0.3086751627079768</v>
+        <v>-0.3330879551666581</v>
       </c>
       <c r="D90">
-        <v>-0.02159146670058427</v>
+        <v>0.01483771767871092</v>
       </c>
       <c r="E90">
-        <v>0.02290696580436676</v>
+        <v>0.02299449568606183</v>
       </c>
       <c r="F90">
-        <v>-0.0004731255199878659</v>
+        <v>0.006995951391948696</v>
       </c>
       <c r="G90">
-        <v>0.07614891745014363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01249175121842607</v>
+      </c>
+      <c r="H90">
+        <v>-0.05126339479084797</v>
+      </c>
+      <c r="I90">
+        <v>0.1979563446817361</v>
+      </c>
+      <c r="J90">
+        <v>0.04075465087522875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3122367601645729</v>
+        <v>0.3180929410882483</v>
       </c>
       <c r="C91">
-        <v>-0.009461621798550719</v>
+        <v>0.03963971653272183</v>
       </c>
       <c r="D91">
-        <v>0.08246043662188206</v>
+        <v>-0.1074274574952041</v>
       </c>
       <c r="E91">
-        <v>-0.2654976915084341</v>
+        <v>-0.2713387183496827</v>
       </c>
       <c r="F91">
-        <v>-0.1207098181822671</v>
+        <v>-0.08203862455546485</v>
       </c>
       <c r="G91">
-        <v>-0.09590173419215509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02625094542215649</v>
+      </c>
+      <c r="H91">
+        <v>-0.011448999945872</v>
+      </c>
+      <c r="I91">
+        <v>0.001588405225948466</v>
+      </c>
+      <c r="J91">
+        <v>0.3421402879340067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04330132576881347</v>
+        <v>0.06145395441302133</v>
       </c>
       <c r="C92">
-        <v>0.4488266531478018</v>
+        <v>-0.4751526614793746</v>
       </c>
       <c r="D92">
-        <v>-0.2009803711313624</v>
+        <v>0.05788997006525535</v>
       </c>
       <c r="E92">
-        <v>-0.1186455278844741</v>
+        <v>-0.1233210588869568</v>
       </c>
       <c r="F92">
-        <v>-0.0743819423364946</v>
+        <v>-0.06330473760242626</v>
       </c>
       <c r="G92">
-        <v>-0.5262541673634256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.07997340070272689</v>
+      </c>
+      <c r="H92">
+        <v>0.5766926089482503</v>
+      </c>
+      <c r="I92">
+        <v>-0.6087198863408398</v>
+      </c>
+      <c r="J92">
+        <v>-0.009161541002626106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04106294188824527</v>
+        <v>0.02309683581661476</v>
       </c>
       <c r="C93">
-        <v>0.3616618530672365</v>
+        <v>-0.4066561714477803</v>
       </c>
       <c r="D93">
-        <v>-0.06845507070773636</v>
+        <v>0.03974122773882432</v>
       </c>
       <c r="E93">
-        <v>-0.05965436508761832</v>
+        <v>-0.02190360843122943</v>
       </c>
       <c r="F93">
-        <v>-0.02091770662205585</v>
+        <v>-0.0355077579647782</v>
       </c>
       <c r="G93">
-        <v>-0.002420501306052585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03410074239453879</v>
+      </c>
+      <c r="H93">
+        <v>-0.06410931052796784</v>
+      </c>
+      <c r="I93">
+        <v>0.2093440526137401</v>
+      </c>
+      <c r="J93">
+        <v>0.06101606328223094</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3049598396023115</v>
+        <v>0.3243849956599094</v>
       </c>
       <c r="C94">
-        <v>0.02436600564489655</v>
+        <v>0.008708241152056269</v>
       </c>
       <c r="D94">
-        <v>0.07886535963147896</v>
+        <v>-0.1681867712389084</v>
       </c>
       <c r="E94">
-        <v>-0.4419289422998912</v>
+        <v>-0.3576552118135914</v>
       </c>
       <c r="F94">
-        <v>-0.3963085592268439</v>
+        <v>-0.1607280199029885</v>
       </c>
       <c r="G94">
-        <v>0.0500895472601213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1873318607102522</v>
+      </c>
+      <c r="H94">
+        <v>0.07434172303448026</v>
+      </c>
+      <c r="I94">
+        <v>0.2614647041550491</v>
+      </c>
+      <c r="J94">
+        <v>-0.5643188453818448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.187343660678091</v>
+        <v>0.1416447869013432</v>
       </c>
       <c r="C95">
-        <v>0.04226359148791425</v>
+        <v>0.05565873017606011</v>
       </c>
       <c r="D95">
-        <v>0.01561055400018689</v>
+        <v>-0.03882648333558106</v>
       </c>
       <c r="E95">
-        <v>-0.3611216750373372</v>
+        <v>0.01133735568532116</v>
       </c>
       <c r="F95">
-        <v>0.8628399006869075</v>
+        <v>-0.09923555763990713</v>
       </c>
       <c r="G95">
-        <v>-0.03961549444358814</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9191442427798795</v>
+      </c>
+      <c r="H95">
+        <v>-0.1091653539016616</v>
+      </c>
+      <c r="I95">
+        <v>-0.007458759067468005</v>
+      </c>
+      <c r="J95">
+        <v>-0.2445387177084729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2082421911729101</v>
+        <v>0.2065540224172003</v>
       </c>
       <c r="C98">
-        <v>0.1474306433011131</v>
+        <v>-0.09335687812463273</v>
       </c>
       <c r="D98">
-        <v>-0.02137670996263669</v>
+        <v>0.003342774310887591</v>
       </c>
       <c r="E98">
-        <v>0.09111909155016594</v>
+        <v>0.1646525489937467</v>
       </c>
       <c r="F98">
-        <v>0.01084605616744286</v>
+        <v>-0.04534109872037311</v>
       </c>
       <c r="G98">
-        <v>0.2649540793807732</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08017185414328132</v>
+      </c>
+      <c r="H98">
+        <v>-0.2902813285020439</v>
+      </c>
+      <c r="I98">
+        <v>-0.2202512614228216</v>
+      </c>
+      <c r="J98">
+        <v>-0.04662414772894956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02117275807311368</v>
+        <v>0.01316654540684121</v>
       </c>
       <c r="C101">
-        <v>-0.0156128498299974</v>
+        <v>0.02738628370825498</v>
       </c>
       <c r="D101">
-        <v>0.01645113609681775</v>
+        <v>-0.02212446655810325</v>
       </c>
       <c r="E101">
-        <v>0.04229518187893691</v>
+        <v>0.05993437838732291</v>
       </c>
       <c r="F101">
-        <v>0.01611385227336993</v>
+        <v>0.04458711549799542</v>
       </c>
       <c r="G101">
-        <v>-0.04727530165112863</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>4.667422409454787e-05</v>
+      </c>
+      <c r="H101">
+        <v>0.117777709227394</v>
+      </c>
+      <c r="I101">
+        <v>0.01219684295616916</v>
+      </c>
+      <c r="J101">
+        <v>-0.08308925683153877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1199617724451521</v>
+        <v>0.1210949191413923</v>
       </c>
       <c r="C102">
-        <v>0.002690774824681454</v>
+        <v>0.02585396302215076</v>
       </c>
       <c r="D102">
-        <v>0.04902308385894565</v>
+        <v>-0.05311218146930505</v>
       </c>
       <c r="E102">
-        <v>-0.07141761907485933</v>
+        <v>-0.08615309073309914</v>
       </c>
       <c r="F102">
-        <v>0.01680034082268727</v>
+        <v>-0.007739236047478356</v>
       </c>
       <c r="G102">
-        <v>-0.01448893494645704</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03681572682603654</v>
+      </c>
+      <c r="H102">
+        <v>-0.007028150660537833</v>
+      </c>
+      <c r="I102">
+        <v>0.0246560646587547</v>
+      </c>
+      <c r="J102">
+        <v>0.06525155676776442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0169133294516516</v>
+        <v>0.02061296071101188</v>
       </c>
       <c r="C103">
-        <v>0.000729194247698318</v>
+        <v>0.008559245511960521</v>
       </c>
       <c r="D103">
-        <v>0.01612234813189252</v>
+        <v>-0.01688510765851929</v>
       </c>
       <c r="E103">
-        <v>-0.02718616159116384</v>
+        <v>-0.01516448506340552</v>
       </c>
       <c r="F103">
-        <v>-0.01278145794789155</v>
+        <v>-0.005858098251858874</v>
       </c>
       <c r="G103">
-        <v>0.008334483960165544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01062340023696828</v>
+      </c>
+      <c r="H103">
+        <v>0.003393646524897315</v>
+      </c>
+      <c r="I103">
+        <v>0.02063580103512468</v>
+      </c>
+      <c r="J103">
+        <v>0.004375186278001201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
